--- a/Code/Results/Cases/Case_6_47/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_6_47/res_line/pl_mw.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>4.883515848105333</v>
+        <v>4.88351584810539</v>
       </c>
       <c r="C2">
-        <v>1.41661346704484</v>
+        <v>1.416613467045067</v>
       </c>
       <c r="D2">
-        <v>0.01259944040580407</v>
+        <v>0.01259944040579697</v>
       </c>
       <c r="E2">
-        <v>0.1003978025512637</v>
+        <v>0.1003978025512531</v>
       </c>
       <c r="F2">
-        <v>3.331811036728993</v>
+        <v>3.331811036728965</v>
       </c>
       <c r="G2">
-        <v>0.0007920270232413262</v>
+        <v>0.0007920270233038202</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -445,7 +445,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.2436885347770641</v>
+        <v>0.2436885347769788</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -457,7 +457,7 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>1.02924985487401</v>
+        <v>1.029249854874003</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -471,19 +471,19 @@
         <v>4.224688718204391</v>
       </c>
       <c r="C3">
-        <v>1.220539921045429</v>
+        <v>1.220539921045258</v>
       </c>
       <c r="D3">
-        <v>0.01124140875350221</v>
+        <v>0.01124140875353064</v>
       </c>
       <c r="E3">
-        <v>0.08919486310530544</v>
+        <v>0.08919486310534097</v>
       </c>
       <c r="F3">
-        <v>3.00849658251056</v>
+        <v>3.008496582510588</v>
       </c>
       <c r="G3">
-        <v>0.0008032605794767223</v>
+        <v>0.0008032605795383142</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -492,7 +492,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.2159743427175158</v>
+        <v>0.2159743427175584</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -504,7 +504,7 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>1.069686252995588</v>
+        <v>1.069686252995581</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>3.829721449696876</v>
+        <v>3.829721449696933</v>
       </c>
       <c r="C4">
-        <v>1.103000526649282</v>
+        <v>1.103000526649055</v>
       </c>
       <c r="D4">
-        <v>0.01041332716012278</v>
+        <v>0.01041332716011922</v>
       </c>
       <c r="E4">
-        <v>0.08251594267097673</v>
+        <v>0.08251594267104068</v>
       </c>
       <c r="F4">
-        <v>2.81899675982072</v>
+        <v>2.818996759820692</v>
       </c>
       <c r="G4">
-        <v>0.0008103037030987384</v>
+        <v>0.0008103037031556386</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -539,7 +539,7 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.1995546459747146</v>
+        <v>0.1995546459747715</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>3.670832499928906</v>
+        <v>3.67083249992902</v>
       </c>
       <c r="C5">
-        <v>1.055713267543126</v>
+        <v>1.055713267542785</v>
       </c>
       <c r="D5">
-        <v>0.01007711116711008</v>
+        <v>0.0100771111671385</v>
       </c>
       <c r="E5">
-        <v>0.07983846998466149</v>
+        <v>0.07983846998470057</v>
       </c>
       <c r="F5">
-        <v>2.743782270204321</v>
+        <v>2.743782270204349</v>
       </c>
       <c r="G5">
-        <v>0.0008132137136536317</v>
+        <v>0.0008132137136575216</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -586,7 +586,7 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.1929951878679717</v>
+        <v>0.1929951878680143</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -598,7 +598,7 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>1.108226115068042</v>
+        <v>1.108226115068049</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>3.644564496339001</v>
+        <v>3.644564496339228</v>
       </c>
       <c r="C6">
-        <v>1.047895280870591</v>
+        <v>1.047895280870478</v>
       </c>
       <c r="D6">
-        <v>0.01002135171393448</v>
+        <v>0.01002135171404461</v>
       </c>
       <c r="E6">
-        <v>0.07939638687182082</v>
+        <v>0.07939638687181372</v>
       </c>
       <c r="F6">
-        <v>2.731407199499259</v>
+        <v>2.73140719949933</v>
       </c>
       <c r="G6">
-        <v>0.0008136994162714073</v>
+        <v>0.0008136994162690494</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -633,7 +633,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.1919134485059146</v>
+        <v>0.1919134485060141</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -645,7 +645,7 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>1.110169281442403</v>
+        <v>1.110169281442388</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>3.827570685324361</v>
+        <v>3.827570685324304</v>
       </c>
       <c r="C7">
-        <v>1.102360451701088</v>
+        <v>1.102360451700974</v>
       </c>
       <c r="D7">
-        <v>0.01040878809372359</v>
+        <v>0.01040878809383727</v>
       </c>
       <c r="E7">
-        <v>0.08247966164968901</v>
+        <v>0.08247966164971743</v>
       </c>
       <c r="F7">
-        <v>2.817974582023282</v>
+        <v>2.817974582023254</v>
       </c>
       <c r="G7">
-        <v>0.0008103427829800604</v>
+        <v>0.0008103427829207367</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -680,7 +680,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.1994656724614075</v>
+        <v>0.1994656724613506</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -692,7 +692,7 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>1.096857233595991</v>
+        <v>1.096857233595983</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>4.65415279789903</v>
+        <v>4.654152797899087</v>
       </c>
       <c r="C8">
-        <v>1.348348162547154</v>
+        <v>1.348348162547381</v>
       </c>
       <c r="D8">
-        <v>0.01212985630566266</v>
+        <v>0.01212985630553476</v>
       </c>
       <c r="E8">
         <v>0.09648976273910748</v>
       </c>
       <c r="F8">
-        <v>3.218295747195896</v>
+        <v>3.218295747195867</v>
       </c>
       <c r="G8">
-        <v>0.0007958721846312621</v>
+        <v>0.000795872184507431</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -727,7 +727,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.233997057609912</v>
+        <v>0.2339970576100541</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -753,10 +753,10 @@
         <v>6.368475391842594</v>
       </c>
       <c r="C9">
-        <v>1.858846152759725</v>
+        <v>1.85884615275944</v>
       </c>
       <c r="D9">
-        <v>0.01556249725988579</v>
+        <v>0.015562497260035</v>
       </c>
       <c r="E9">
         <v>0.1258582034049915</v>
@@ -765,7 +765,7 @@
         <v>4.088276325599367</v>
       </c>
       <c r="G9">
-        <v>0.0007684838765426209</v>
+        <v>0.000768483876473565</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -774,7 +774,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.3074032003415823</v>
+        <v>0.3074032003417244</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -786,7 +786,7 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>0.9558876799316778</v>
+        <v>0.9558876799317346</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>7.713707116761157</v>
+        <v>7.7137071167611</v>
       </c>
       <c r="C10">
-        <v>2.260088563490115</v>
+        <v>2.260088563490569</v>
       </c>
       <c r="D10">
-        <v>0.01814067121785712</v>
+        <v>0.01814067121816265</v>
       </c>
       <c r="E10">
-        <v>0.1490974317210068</v>
+        <v>0.1490974317210423</v>
       </c>
       <c r="F10">
-        <v>4.801189441458405</v>
+        <v>4.801189441458348</v>
       </c>
       <c r="G10">
-        <v>0.0007486918172982176</v>
+        <v>0.0007486918172782196</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -833,7 +833,7 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>0.9071333285569949</v>
+        <v>0.9071333285570091</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>8.352244115975964</v>
+        <v>8.352244115976191</v>
       </c>
       <c r="C11">
         <v>2.450817890224187</v>
       </c>
       <c r="D11">
-        <v>0.01933200351608733</v>
+        <v>0.01933200351602693</v>
       </c>
       <c r="E11">
-        <v>0.1601703751136228</v>
+        <v>0.160170375113637</v>
       </c>
       <c r="F11">
         <v>5.147591686302576</v>
       </c>
       <c r="G11">
-        <v>0.0007396848290900364</v>
+        <v>0.0007396848291456623</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -868,7 +868,7 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.3947164528118492</v>
+        <v>0.3947164528117639</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -894,19 +894,19 @@
         <v>8.598680465098141</v>
       </c>
       <c r="C12">
-        <v>2.52448077106493</v>
+        <v>2.524480771065157</v>
       </c>
       <c r="D12">
-        <v>0.01978646232883463</v>
+        <v>0.01978646232921477</v>
       </c>
       <c r="E12">
-        <v>0.1644498580584042</v>
+        <v>0.1644498580584539</v>
       </c>
       <c r="F12">
-        <v>5.282567681936456</v>
+        <v>5.282567681936484</v>
       </c>
       <c r="G12">
-        <v>0.0007362659673528782</v>
+        <v>0.0007362659674078899</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -915,7 +915,7 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.4057157937248093</v>
+        <v>0.4057157937250224</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -927,7 +927,7 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>0.8829927397769666</v>
+        <v>0.8829927397769524</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>8.545385136951268</v>
+        <v>8.545385136951211</v>
       </c>
       <c r="C13">
-        <v>2.508547537642471</v>
+        <v>2.508547537642585</v>
       </c>
       <c r="D13">
-        <v>0.01968842622198963</v>
+        <v>0.01968842622228451</v>
       </c>
       <c r="E13">
-        <v>0.1635240945079346</v>
+        <v>0.1635240945079062</v>
       </c>
       <c r="F13">
         <v>5.253317890966343</v>
       </c>
       <c r="G13">
-        <v>0.0007370027780338926</v>
+        <v>0.0007370027780863168</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -962,7 +962,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.403334345206261</v>
+        <v>0.4033343452064457</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -974,7 +974,7 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>0.8842799957344027</v>
+        <v>0.8842799957344312</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>8.372420444889713</v>
+        <v>8.372420444889428</v>
       </c>
       <c r="C14">
-        <v>2.456847701406332</v>
+        <v>2.456847701406843</v>
       </c>
       <c r="D14">
-        <v>0.01936932106318068</v>
+        <v>0.01936932106319489</v>
       </c>
       <c r="E14">
-        <v>0.1605206273617199</v>
+        <v>0.1605206273618265</v>
       </c>
       <c r="F14">
         <v>5.158616058943522</v>
       </c>
       <c r="G14">
-        <v>0.0007394037686701587</v>
+        <v>0.0007394037686718455</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1009,7 +1009,7 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.3956157984770101</v>
+        <v>0.395615798477067</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -1021,7 +1021,7 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>0.8886020880831467</v>
+        <v>0.8886020880832035</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>8.267105156619209</v>
+        <v>8.267105156619152</v>
       </c>
       <c r="C15">
-        <v>2.425375838598256</v>
+        <v>2.425375838597972</v>
       </c>
       <c r="D15">
-        <v>0.01917431563624561</v>
+        <v>0.01917431563663285</v>
       </c>
       <c r="E15">
-        <v>0.1586926402001225</v>
+        <v>0.1586926402000941</v>
       </c>
       <c r="F15">
-        <v>5.101124021258016</v>
+        <v>5.101124021258045</v>
       </c>
       <c r="G15">
-        <v>0.000740873137764312</v>
+        <v>0.000740873137876421</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1056,7 +1056,7 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0.3909238134685324</v>
+        <v>0.390923813468433</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -1068,7 +1068,7 @@
         <v>0</v>
       </c>
       <c r="N15">
-        <v>0.8913428438488893</v>
+        <v>0.8913428438489035</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>7.672578270333986</v>
+        <v>7.672578270334043</v>
       </c>
       <c r="C16">
-        <v>2.247809972898779</v>
+        <v>2.247809972898551</v>
       </c>
       <c r="D16">
-        <v>0.01806324077491794</v>
+        <v>0.01806324077521282</v>
       </c>
       <c r="E16">
-        <v>0.1483850396856745</v>
+        <v>0.1483850396856816</v>
       </c>
       <c r="F16">
-        <v>4.779046514813302</v>
+        <v>4.779046514813331</v>
       </c>
       <c r="G16">
-        <v>0.0007492797563138655</v>
+        <v>0.0007492797563110319</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0.364548577631183</v>
+        <v>0.3645485776312398</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -1115,7 +1115,7 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>0.9084019465732922</v>
+        <v>0.9084019465733491</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>7.315196670366731</v>
+        <v>7.315196670366845</v>
       </c>
       <c r="C17">
-        <v>2.141148642252119</v>
+        <v>2.141148642252233</v>
       </c>
       <c r="D17">
-        <v>0.01738680044181962</v>
+        <v>0.01738680044188001</v>
       </c>
       <c r="E17">
-        <v>0.1421994290741608</v>
+        <v>0.1421994290741679</v>
       </c>
       <c r="F17">
         <v>4.587529475446928</v>
       </c>
       <c r="G17">
-        <v>0.000754431067003883</v>
+        <v>0.0007544310669294923</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1150,7 +1150,7 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0.3487883133612542</v>
+        <v>0.3487883133612826</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>0.91999551517155</v>
+        <v>0.9199955151715926</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,13 +1173,13 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>7.11208579144926</v>
+        <v>7.112085791449374</v>
       </c>
       <c r="C18">
-        <v>2.080553837337447</v>
+        <v>2.08055383733722</v>
       </c>
       <c r="D18">
-        <v>0.0169994242043181</v>
+        <v>0.01699942420409428</v>
       </c>
       <c r="E18">
         <v>0.1386878175586013</v>
@@ -1188,7 +1188,7 @@
         <v>4.479410078608424</v>
       </c>
       <c r="G18">
-        <v>0.0007573941664240635</v>
+        <v>0.0007573941664244029</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1197,7 +1197,7 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0.339864013340943</v>
+        <v>0.3398640133410566</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>7.043713590310745</v>
+        <v>7.043713590310915</v>
       </c>
       <c r="C19">
-        <v>2.060159882726225</v>
+        <v>2.060159882726452</v>
       </c>
       <c r="D19">
-        <v>0.01686853838013391</v>
+        <v>0.01686853838004509</v>
       </c>
       <c r="E19">
-        <v>0.1375063852004885</v>
+        <v>0.1375063852005489</v>
       </c>
       <c r="F19">
         <v>4.443135269254867</v>
       </c>
       <c r="G19">
-        <v>0.0007583976651927364</v>
+        <v>0.0007583976651176454</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1244,7 +1244,7 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0.3368653225115708</v>
+        <v>0.336865322511656</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -1256,7 +1256,7 @@
         <v>0</v>
       </c>
       <c r="N19">
-        <v>0.9295013521559667</v>
+        <v>0.9295013521559383</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>7.352982033327919</v>
+        <v>7.352982033328033</v>
       </c>
       <c r="C20">
-        <v>2.152423174327225</v>
+        <v>2.152423174327396</v>
       </c>
       <c r="D20">
-        <v>0.01745862896638428</v>
+        <v>0.01745862896616046</v>
       </c>
       <c r="E20">
-        <v>0.1428530223308506</v>
+        <v>0.1428530223308186</v>
       </c>
       <c r="F20">
-        <v>4.607701910729674</v>
+        <v>4.607701910729759</v>
       </c>
       <c r="G20">
-        <v>0.0007538827309529562</v>
+        <v>0.0007538827308952153</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1291,7 +1291,7 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0.3504511745195487</v>
+        <v>0.3504511745193639</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -1303,7 +1303,7 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>0.9187208326866738</v>
+        <v>0.9187208326866596</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>8.423091275879131</v>
+        <v>8.423091275879415</v>
       </c>
       <c r="C21">
         <v>2.471991861094466</v>
       </c>
       <c r="D21">
-        <v>0.01946295360122718</v>
+        <v>0.01946295360127692</v>
       </c>
       <c r="E21">
         <v>0.1614003458330657</v>
       </c>
       <c r="F21">
-        <v>5.186323549365909</v>
+        <v>5.186323549365966</v>
       </c>
       <c r="G21">
-        <v>0.000738698827509147</v>
+        <v>0.0007386988275071005</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1338,7 +1338,7 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0.397875360153165</v>
+        <v>0.3978753601530514</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -1364,19 +1364,19 @@
         <v>9.149992074007855</v>
       </c>
       <c r="C22">
-        <v>2.689388614500558</v>
+        <v>2.689388614500388</v>
       </c>
       <c r="D22">
-        <v>0.0207927192526256</v>
+        <v>0.02079271925263626</v>
       </c>
       <c r="E22">
-        <v>0.174034465451065</v>
+        <v>0.1740344654510295</v>
       </c>
       <c r="F22">
-        <v>5.587024567989829</v>
+        <v>5.587024567989801</v>
       </c>
       <c r="G22">
-        <v>0.0007287233340783709</v>
+        <v>0.0007287233342676191</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1385,7 +1385,7 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0.4304359576085233</v>
+        <v>0.4304359576085517</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -1397,7 +1397,7 @@
         <v>0</v>
       </c>
       <c r="N22">
-        <v>0.8708832804545352</v>
+        <v>0.8708832804545921</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1411,19 +1411,19 @@
         <v>8.759201244565702</v>
       </c>
       <c r="C23">
-        <v>2.572479070958195</v>
+        <v>2.572479070958252</v>
       </c>
       <c r="D23">
-        <v>0.0200809213770512</v>
+        <v>0.02008092137684159</v>
       </c>
       <c r="E23">
         <v>0.1672390321175072</v>
       </c>
       <c r="F23">
-        <v>5.370861235784218</v>
+        <v>5.37086123578419</v>
       </c>
       <c r="G23">
-        <v>0.0007340551091314929</v>
+        <v>0.0007340551091337133</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1432,7 +1432,7 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0.412897373024208</v>
+        <v>0.4128973730240943</v>
       </c>
       <c r="K23">
         <v>0</v>
@@ -1444,7 +1444,7 @@
         <v>0</v>
       </c>
       <c r="N23">
-        <v>0.8792410616709248</v>
+        <v>0.879241061670939</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>7.335892002239007</v>
+        <v>7.335892002238836</v>
       </c>
       <c r="C24">
-        <v>2.147323715136963</v>
+        <v>2.147323715136906</v>
       </c>
       <c r="D24">
-        <v>0.01742615060880937</v>
+        <v>0.01742615060874186</v>
       </c>
       <c r="E24">
-        <v>0.1425573950067296</v>
+        <v>0.142557395006758</v>
       </c>
       <c r="F24">
-        <v>4.59857581130774</v>
+        <v>4.598575811307683</v>
       </c>
       <c r="G24">
-        <v>0.0007541306282737724</v>
+        <v>0.0007541306282390487</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1479,7 +1479,7 @@
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0.3496989730956557</v>
+        <v>0.3496989730955704</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -1491,7 +1491,7 @@
         <v>0</v>
       </c>
       <c r="N24">
-        <v>0.9192959131900835</v>
+        <v>0.9192959131900409</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>5.89200393781158</v>
+        <v>5.892003937811751</v>
       </c>
       <c r="C25">
-        <v>1.71688598463254</v>
+        <v>1.716885984632768</v>
       </c>
       <c r="D25">
-        <v>0.01462578977581686</v>
+        <v>0.0146257897758062</v>
       </c>
       <c r="E25">
-        <v>0.1176627808763939</v>
+        <v>0.1176627808764223</v>
       </c>
       <c r="F25">
-        <v>3.841769067480925</v>
+        <v>3.841769067480953</v>
       </c>
       <c r="G25">
-        <v>0.0007758129759651794</v>
+        <v>0.0007758129760184443</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1526,7 +1526,7 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0.2867890707976102</v>
+        <v>0.2867890707976528</v>
       </c>
       <c r="K25">
         <v>0</v>

--- a/Code/Results/Cases/Case_6_47/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_6_47/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O25"/>
+  <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -415,1132 +415,1282 @@
       <c r="O1" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>4.88351584810539</v>
+        <v>2.849566727709032</v>
       </c>
       <c r="C2">
-        <v>1.416613467045067</v>
+        <v>0.9823292823700172</v>
       </c>
       <c r="D2">
-        <v>0.01259944040579697</v>
+        <v>0.1311576868928483</v>
       </c>
       <c r="E2">
-        <v>0.1003978025512531</v>
+        <v>0.1516935162507593</v>
       </c>
       <c r="F2">
-        <v>3.331811036728965</v>
+        <v>1.268519604685252</v>
       </c>
       <c r="G2">
-        <v>0.0007920270233038202</v>
+        <v>0.9322881981361206</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>0.00334714836598371</v>
       </c>
       <c r="J2">
-        <v>0.2436885347769788</v>
+        <v>0.5876796403362476</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>0.4129079284310819</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>0.2030316111607391</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
       <c r="N2">
-        <v>1.029249854874003</v>
+        <v>0</v>
       </c>
       <c r="O2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:15">
+      <c r="P2">
+        <v>0.6985762884866844</v>
+      </c>
+      <c r="Q2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>4.224688718204391</v>
+        <v>2.477048397991041</v>
       </c>
       <c r="C3">
-        <v>1.220539921045258</v>
+        <v>0.8506322728272835</v>
       </c>
       <c r="D3">
-        <v>0.01124140875353064</v>
+        <v>0.1170531764141458</v>
       </c>
       <c r="E3">
-        <v>0.08919486310534097</v>
+        <v>0.1352279115194044</v>
       </c>
       <c r="F3">
-        <v>3.008496582510588</v>
+        <v>1.165576689919178</v>
       </c>
       <c r="G3">
-        <v>0.0008032605795383142</v>
+        <v>0.8498046374439951</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>0.001581032242134572</v>
       </c>
       <c r="J3">
-        <v>0.2159743427175584</v>
+        <v>0.5558042347527561</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>0.3992747321024765</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>0.1808443596350671</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
       <c r="N3">
-        <v>1.069686252995581</v>
+        <v>0</v>
       </c>
       <c r="O3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:15">
+      <c r="P3">
+        <v>0.725143280845014</v>
+      </c>
+      <c r="Q3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>3.829721449696933</v>
+        <v>2.248328934077108</v>
       </c>
       <c r="C4">
-        <v>1.103000526649055</v>
+        <v>0.770679244283258</v>
       </c>
       <c r="D4">
-        <v>0.01041332716011922</v>
+        <v>0.1085510218632919</v>
       </c>
       <c r="E4">
-        <v>0.08251594267104068</v>
+        <v>0.1253130076839248</v>
       </c>
       <c r="F4">
-        <v>2.818996759820692</v>
+        <v>1.104110424046553</v>
       </c>
       <c r="G4">
-        <v>0.0008103037031556386</v>
+        <v>0.8004869708520062</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>0.0008925725355912739</v>
       </c>
       <c r="J4">
-        <v>0.1995546459747715</v>
+        <v>0.5370205154761578</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>0.3914600504199761</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>0.1674964651472166</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
       <c r="N4">
-        <v>1.096703867554581</v>
+        <v>0</v>
       </c>
       <c r="O4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:15">
+      <c r="P4">
+        <v>0.7423461885277582</v>
+      </c>
+      <c r="Q4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>3.67083249992902</v>
+        <v>2.15358302133393</v>
       </c>
       <c r="C5">
-        <v>1.055713267542785</v>
+        <v>0.7390555300712549</v>
       </c>
       <c r="D5">
-        <v>0.0100771111671385</v>
+        <v>0.1052360833226942</v>
       </c>
       <c r="E5">
-        <v>0.07983846998470057</v>
+        <v>0.1213524011362779</v>
       </c>
       <c r="F5">
-        <v>2.743782270204349</v>
+        <v>1.07851564885317</v>
       </c>
       <c r="G5">
-        <v>0.0008132137136575216</v>
+        <v>0.7797409117766136</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>0.0007656690411055322</v>
       </c>
       <c r="J5">
-        <v>0.1929951878680143</v>
+        <v>0.5290694869257777</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>0.3878448440392823</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>0.1620955134847364</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
       <c r="N5">
-        <v>1.108226115068049</v>
+        <v>0</v>
       </c>
       <c r="O5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:15">
+      <c r="P5">
+        <v>0.7497902656098319</v>
+      </c>
+      <c r="Q5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>3.644564496339228</v>
+        <v>2.135997524591517</v>
       </c>
       <c r="C6">
-        <v>1.047895280870478</v>
+        <v>0.7347430057286886</v>
       </c>
       <c r="D6">
-        <v>0.01002135171404461</v>
+        <v>0.104825868372771</v>
       </c>
       <c r="E6">
-        <v>0.07939638687181372</v>
+        <v>0.120739972254448</v>
       </c>
       <c r="F6">
-        <v>2.73140719949933</v>
+        <v>1.073128756975251</v>
       </c>
       <c r="G6">
-        <v>0.0008136994162690494</v>
+        <v>0.7751494136479948</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>0.0008322642982978579</v>
       </c>
       <c r="J6">
-        <v>0.1919134485060141</v>
+        <v>0.5271721806146843</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>0.3865671900540981</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>0.1611723804248726</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
       <c r="N6">
-        <v>1.110169281442388</v>
+        <v>0</v>
       </c>
       <c r="O6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:15">
+      <c r="P6">
+        <v>0.7513075027314251</v>
+      </c>
+      <c r="Q6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>3.827570685324304</v>
+        <v>2.241975606207632</v>
       </c>
       <c r="C7">
-        <v>1.102360451700974</v>
+        <v>0.7727898527983541</v>
       </c>
       <c r="D7">
-        <v>0.01040878809383727</v>
+        <v>0.1088835910456396</v>
       </c>
       <c r="E7">
-        <v>0.08247966164971743</v>
+        <v>0.1253758450538562</v>
       </c>
       <c r="F7">
-        <v>2.817974582023254</v>
+        <v>1.100588945889385</v>
       </c>
       <c r="G7">
-        <v>0.0008103427829207367</v>
+        <v>0.7970196904892646</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>0.001097937434108687</v>
       </c>
       <c r="J7">
-        <v>0.1994656724613506</v>
+        <v>0.5353050443289504</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>0.3895376345200461</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>0.1673412438900144</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
       <c r="N7">
-        <v>1.096857233595983</v>
+        <v>0</v>
       </c>
       <c r="O7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:15">
+      <c r="P7">
+        <v>0.7431945305205652</v>
+      </c>
+      <c r="Q7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>4.654152797899087</v>
+        <v>2.714292027648469</v>
       </c>
       <c r="C8">
-        <v>1.348348162547381</v>
+        <v>0.9400994361407697</v>
       </c>
       <c r="D8">
-        <v>0.01212985630553476</v>
+        <v>0.1267615811609915</v>
       </c>
       <c r="E8">
-        <v>0.09648976273910748</v>
+        <v>0.1461273290269389</v>
       </c>
       <c r="F8">
-        <v>3.218295747195867</v>
+        <v>1.228414399388129</v>
       </c>
       <c r="G8">
-        <v>0.000795872184507431</v>
+        <v>0.8993093399895002</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>0.002887993508197795</v>
       </c>
       <c r="J8">
-        <v>0.2339970576100541</v>
+        <v>0.5743809256495069</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>0.4055997508901328</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>0.1952098595875782</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
       <c r="N8">
-        <v>1.042713525553836</v>
+        <v>0</v>
       </c>
       <c r="O8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:15">
+      <c r="P8">
+        <v>0.7086128420122932</v>
+      </c>
+      <c r="Q8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>6.368475391842594</v>
+        <v>3.651379022650474</v>
       </c>
       <c r="C9">
-        <v>1.85884615275944</v>
+        <v>1.272170075324766</v>
       </c>
       <c r="D9">
-        <v>0.015562497260035</v>
+        <v>0.1625255884253818</v>
       </c>
       <c r="E9">
-        <v>0.1258582034049915</v>
+        <v>0.18835761639086</v>
       </c>
       <c r="F9">
-        <v>4.088276325599367</v>
+        <v>1.500386588613992</v>
       </c>
       <c r="G9">
-        <v>0.000768483876473565</v>
+        <v>1.117681895478441</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>0.009597202475834621</v>
       </c>
       <c r="J9">
-        <v>0.3074032003417244</v>
+        <v>0.6608377510582102</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>0.445362317920484</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>0.2525017629959905</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
       <c r="N9">
-        <v>0.9558876799317346</v>
+        <v>0</v>
       </c>
       <c r="O9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:15">
+      <c r="P9">
+        <v>0.6467461160325101</v>
+      </c>
+      <c r="Q9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>7.7137071167611</v>
+        <v>4.340646402120342</v>
       </c>
       <c r="C10">
-        <v>2.260088563490569</v>
+        <v>1.524705295583999</v>
       </c>
       <c r="D10">
-        <v>0.01814067121816265</v>
+        <v>0.1900322834441113</v>
       </c>
       <c r="E10">
-        <v>0.1490974317210423</v>
+        <v>0.2208044478093072</v>
       </c>
       <c r="F10">
-        <v>4.801189441458348</v>
+        <v>1.710761847299324</v>
       </c>
       <c r="G10">
-        <v>0.0007486918172782196</v>
+        <v>1.286103425980173</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>0.01726339619682538</v>
       </c>
       <c r="J10">
-        <v>0.3663669526267483</v>
+        <v>0.7288142823014709</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>0.4773600816607129</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>0.2965353833036062</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
       <c r="N10">
-        <v>0.9071333285570091</v>
+        <v>0</v>
       </c>
       <c r="O10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:15">
+      <c r="P10">
+        <v>0.6068075729958409</v>
+      </c>
+      <c r="Q10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>8.352244115976191</v>
+        <v>4.646768807846001</v>
       </c>
       <c r="C11">
-        <v>2.450817890224187</v>
+        <v>1.645959040102298</v>
       </c>
       <c r="D11">
-        <v>0.01933200351602693</v>
+        <v>0.2034499019487299</v>
       </c>
       <c r="E11">
-        <v>0.160170375113637</v>
+        <v>0.2361240395691908</v>
       </c>
       <c r="F11">
-        <v>5.147591686302576</v>
+        <v>1.804421191400408</v>
       </c>
       <c r="G11">
-        <v>0.0007396848291456623</v>
+        <v>1.35999963123092</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>0.02172320840545172</v>
       </c>
       <c r="J11">
-        <v>0.3947164528117639</v>
+        <v>0.758455394465102</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>0.4898039783473038</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>0.3169660353883756</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
       <c r="N11">
-        <v>0.8891207347454753</v>
+        <v>0</v>
       </c>
       <c r="O11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:15">
+      <c r="P11">
+        <v>0.5914609744599986</v>
+      </c>
+      <c r="Q11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>8.598680465098141</v>
+        <v>4.767572909546971</v>
       </c>
       <c r="C12">
-        <v>2.524480771065157</v>
+        <v>1.689948941113585</v>
       </c>
       <c r="D12">
-        <v>0.01978646232921477</v>
+        <v>0.2082402716379619</v>
       </c>
       <c r="E12">
-        <v>0.1644498580584539</v>
+        <v>0.2418836774557818</v>
       </c>
       <c r="F12">
-        <v>5.282567681936484</v>
+        <v>1.843246826157369</v>
       </c>
       <c r="G12">
-        <v>0.0007362659674078899</v>
+        <v>1.39124966036934</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>0.02337793763511264</v>
       </c>
       <c r="J12">
-        <v>0.4057157937250224</v>
+        <v>0.7713240955293656</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>0.4963189619394228</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>0.3248680545683698</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
       <c r="N12">
-        <v>0.8829927397769524</v>
+        <v>0</v>
       </c>
       <c r="O12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:15">
+      <c r="P12">
+        <v>0.5850125238728694</v>
+      </c>
+      <c r="Q12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>8.545385136951211</v>
+        <v>4.742481165418098</v>
       </c>
       <c r="C13">
-        <v>2.508547537642585</v>
+        <v>1.680000321034299</v>
       </c>
       <c r="D13">
-        <v>0.01968842622228451</v>
+        <v>0.2071391307102459</v>
       </c>
       <c r="E13">
-        <v>0.1635240945079062</v>
+        <v>0.2406201271347328</v>
       </c>
       <c r="F13">
-        <v>5.253317890966343</v>
+        <v>1.83543051106605</v>
       </c>
       <c r="G13">
-        <v>0.0007370027780863168</v>
+        <v>1.385071822867815</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>0.02298479860685632</v>
       </c>
       <c r="J13">
-        <v>0.4033343452064457</v>
+        <v>0.7688285316000645</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>0.4952395920395389</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>0.3231776659992818</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
       <c r="N13">
-        <v>0.8842799957344312</v>
+        <v>0</v>
       </c>
       <c r="O13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:15">
+      <c r="P13">
+        <v>0.586222847282059</v>
+      </c>
+      <c r="Q13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>8.372420444889428</v>
+        <v>4.657099830240668</v>
       </c>
       <c r="C14">
-        <v>2.456847701406843</v>
+        <v>1.649376235526006</v>
       </c>
       <c r="D14">
-        <v>0.01936932106319489</v>
+        <v>0.2038144672109183</v>
       </c>
       <c r="E14">
-        <v>0.1605206273618265</v>
+        <v>0.2365880067463237</v>
       </c>
       <c r="F14">
-        <v>5.158616058943522</v>
+        <v>1.807846363956742</v>
       </c>
       <c r="G14">
-        <v>0.0007394037686718455</v>
+        <v>1.362804598150575</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>0.02184322990048315</v>
       </c>
       <c r="J14">
-        <v>0.395615798477067</v>
+        <v>0.7596310131675068</v>
       </c>
       <c r="K14">
-        <v>0</v>
+        <v>0.4904772334736762</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>0.3176208976757948</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
       <c r="N14">
-        <v>0.8886020880832035</v>
+        <v>0</v>
       </c>
       <c r="O14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:15">
+      <c r="P14">
+        <v>0.5908547048644266</v>
+      </c>
+      <c r="Q14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>8.267105156619152</v>
+        <v>4.602994620898414</v>
       </c>
       <c r="C15">
-        <v>2.425375838597972</v>
+        <v>1.631566657257395</v>
       </c>
       <c r="D15">
-        <v>0.01917431563663285</v>
+        <v>0.2019165845175337</v>
       </c>
       <c r="E15">
-        <v>0.1586926402000941</v>
+        <v>0.2341662865139611</v>
       </c>
       <c r="F15">
-        <v>5.101124021258045</v>
+        <v>1.789900902308744</v>
       </c>
       <c r="G15">
-        <v>0.000740873137876421</v>
+        <v>1.348098021189202</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>0.02122608659687586</v>
       </c>
       <c r="J15">
-        <v>0.390923813468433</v>
+        <v>0.7534643207593206</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>0.4869305570910925</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>0.3141985804326879</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
       <c r="N15">
-        <v>0.8913428438489035</v>
+        <v>0</v>
       </c>
       <c r="O15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:15">
+      <c r="P15">
+        <v>0.5940491813051878</v>
+      </c>
+      <c r="Q15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>7.672578270334043</v>
+        <v>4.305217214858942</v>
       </c>
       <c r="C16">
-        <v>2.247809972898551</v>
+        <v>1.524409565678354</v>
       </c>
       <c r="D16">
-        <v>0.01806324077521282</v>
+        <v>0.1902774918015808</v>
       </c>
       <c r="E16">
-        <v>0.1483850396856816</v>
+        <v>0.2201492756062109</v>
       </c>
       <c r="F16">
-        <v>4.779046514813331</v>
+        <v>1.695284484827553</v>
       </c>
       <c r="G16">
-        <v>0.0007492797563110319</v>
+        <v>1.271866350171507</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>0.01750664343148856</v>
       </c>
       <c r="J16">
-        <v>0.3645485776312398</v>
+        <v>0.7221686285746785</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>0.4710828115464878</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>0.2949566301099367</v>
       </c>
       <c r="M16">
         <v>0</v>
       </c>
       <c r="N16">
-        <v>0.9084019465733491</v>
+        <v>0</v>
       </c>
       <c r="O16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:15">
+      <c r="P16">
+        <v>0.6105849247288972</v>
+      </c>
+      <c r="Q16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>7.315196670366845</v>
+        <v>4.123004771151102</v>
       </c>
       <c r="C17">
-        <v>2.141148642252233</v>
+        <v>1.459201604194902</v>
       </c>
       <c r="D17">
-        <v>0.01738680044188001</v>
+        <v>0.1832053746843911</v>
       </c>
       <c r="E17">
-        <v>0.1421994290741679</v>
+        <v>0.2116479075537185</v>
       </c>
       <c r="F17">
-        <v>4.587529475446928</v>
+        <v>1.638171019977889</v>
       </c>
       <c r="G17">
-        <v>0.0007544310669294923</v>
+        <v>1.225857657380459</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>0.01542106610589844</v>
       </c>
       <c r="J17">
-        <v>0.3487883133612826</v>
+        <v>0.7033661723104672</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>0.4616512098853889</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>0.283300535634794</v>
       </c>
       <c r="M17">
         <v>0</v>
       </c>
       <c r="N17">
-        <v>0.9199955151715926</v>
+        <v>0</v>
       </c>
       <c r="O17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:15">
+      <c r="P17">
+        <v>0.6210317763557001</v>
+      </c>
+      <c r="Q17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>7.112085791449374</v>
+        <v>4.023005145363641</v>
       </c>
       <c r="C18">
-        <v>2.08055383733722</v>
+        <v>1.419581958746107</v>
       </c>
       <c r="D18">
-        <v>0.01699942420409428</v>
+        <v>0.1788233247772411</v>
       </c>
       <c r="E18">
-        <v>0.1386878175586013</v>
+        <v>0.2066894274704296</v>
       </c>
       <c r="F18">
-        <v>4.479410078608424</v>
+        <v>1.608486662220187</v>
       </c>
       <c r="G18">
-        <v>0.0007573941664244029</v>
+        <v>1.202509195624515</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>0.01409069184156753</v>
       </c>
       <c r="J18">
-        <v>0.3398640133410566</v>
+        <v>0.6941191711474062</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>0.4579804452107012</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>0.2767240822117429</v>
       </c>
       <c r="M18">
         <v>0</v>
       </c>
       <c r="N18">
-        <v>0.9270493882648196</v>
+        <v>0</v>
       </c>
       <c r="O18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:15">
+      <c r="P18">
+        <v>0.6263228672454275</v>
+      </c>
+      <c r="Q18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>7.043713590310915</v>
+        <v>3.985582376798448</v>
       </c>
       <c r="C19">
-        <v>2.060159882726452</v>
+        <v>1.407966861784701</v>
       </c>
       <c r="D19">
-        <v>0.01686853838004509</v>
+        <v>0.1776043434837362</v>
       </c>
       <c r="E19">
-        <v>0.1375063852005489</v>
+        <v>0.2050952628878946</v>
       </c>
       <c r="F19">
-        <v>4.443135269254867</v>
+        <v>1.596296062330396</v>
       </c>
       <c r="G19">
-        <v>0.0007583976651176454</v>
+        <v>1.192445932509173</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>0.01380164613815182</v>
       </c>
       <c r="J19">
-        <v>0.336865322511656</v>
+        <v>0.6899083100352073</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>0.4554790078535049</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>0.2744467516939579</v>
       </c>
       <c r="M19">
         <v>0</v>
       </c>
       <c r="N19">
-        <v>0.9295013521559383</v>
+        <v>0</v>
       </c>
       <c r="O19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:15">
+      <c r="P19">
+        <v>0.6287692425713871</v>
+      </c>
+      <c r="Q19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>7.352982033328033</v>
+        <v>4.14275114482615</v>
       </c>
       <c r="C20">
-        <v>2.152423174327396</v>
+        <v>1.465943809077999</v>
       </c>
       <c r="D20">
-        <v>0.01745862896616046</v>
+        <v>0.1839291702955421</v>
       </c>
       <c r="E20">
-        <v>0.1428530223308186</v>
+        <v>0.2125413020019025</v>
       </c>
       <c r="F20">
-        <v>4.607701910729759</v>
+        <v>1.644440373707383</v>
       </c>
       <c r="G20">
-        <v>0.0007538827308952153</v>
+        <v>1.230952023161251</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>0.0156201415030699</v>
       </c>
       <c r="J20">
-        <v>0.3504511745193639</v>
+        <v>0.7054655365676581</v>
       </c>
       <c r="K20">
-        <v>0</v>
+        <v>0.462774370549937</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>0.2845420115630901</v>
       </c>
       <c r="M20">
         <v>0</v>
       </c>
       <c r="N20">
-        <v>0.9187208326866596</v>
+        <v>0</v>
       </c>
       <c r="O20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:15">
+      <c r="P20">
+        <v>0.6198431031332063</v>
+      </c>
+      <c r="Q20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>8.423091275879415</v>
+        <v>4.676917875892627</v>
       </c>
       <c r="C21">
-        <v>2.471991861094466</v>
+        <v>1.660933927313522</v>
       </c>
       <c r="D21">
-        <v>0.01946295360127692</v>
+        <v>0.205168179953688</v>
       </c>
       <c r="E21">
-        <v>0.1614003458330657</v>
+        <v>0.2378848439292938</v>
       </c>
       <c r="F21">
-        <v>5.186323549365966</v>
+        <v>1.812737845783246</v>
       </c>
       <c r="G21">
-        <v>0.0007386988275071005</v>
+        <v>1.366125426628031</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>0.02236544638541815</v>
       </c>
       <c r="J21">
-        <v>0.3978753601530514</v>
+        <v>0.7607216885308787</v>
       </c>
       <c r="K21">
-        <v>0</v>
+        <v>0.4900169692829692</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>0.3191633309307491</v>
       </c>
       <c r="M21">
         <v>0</v>
       </c>
       <c r="N21">
-        <v>0.8873129362659</v>
+        <v>0</v>
       </c>
       <c r="O21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:15">
+      <c r="P21">
+        <v>0.5904430285968658</v>
+      </c>
+      <c r="Q21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>9.149992074007855</v>
+        <v>5.034448897494485</v>
       </c>
       <c r="C22">
-        <v>2.689388614500388</v>
+        <v>1.787017725673365</v>
       </c>
       <c r="D22">
-        <v>0.02079271925263626</v>
+        <v>0.2188079630610531</v>
       </c>
       <c r="E22">
-        <v>0.1740344654510295</v>
+        <v>0.2546495540943212</v>
       </c>
       <c r="F22">
-        <v>5.587024567989801</v>
+        <v>1.930084427680342</v>
       </c>
       <c r="G22">
-        <v>0.0007287233342676191</v>
+        <v>1.46123352364441</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>0.02721630792945451</v>
       </c>
       <c r="J22">
-        <v>0.4304359576085517</v>
+        <v>0.8002683022411929</v>
       </c>
       <c r="K22">
-        <v>0</v>
+        <v>0.5111981085105199</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>0.3424289780703447</v>
       </c>
       <c r="M22">
         <v>0</v>
       </c>
       <c r="N22">
-        <v>0.8708832804545921</v>
+        <v>0</v>
       </c>
       <c r="O22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:15">
+      <c r="P22">
+        <v>0.571050903161364</v>
+      </c>
+      <c r="Q22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>8.759201244565702</v>
+        <v>4.849792196425938</v>
       </c>
       <c r="C23">
-        <v>2.572479070958252</v>
+        <v>1.716432931216616</v>
       </c>
       <c r="D23">
-        <v>0.02008092137684159</v>
+        <v>0.2110488122217618</v>
       </c>
       <c r="E23">
-        <v>0.1672390321175072</v>
+        <v>0.2455304126866693</v>
       </c>
       <c r="F23">
-        <v>5.37086123578419</v>
+        <v>1.870988268367867</v>
       </c>
       <c r="G23">
-        <v>0.0007340551091337133</v>
+        <v>1.41407985286844</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>0.02435027778335197</v>
       </c>
       <c r="J23">
-        <v>0.4128973730240943</v>
+        <v>0.7809617581987709</v>
       </c>
       <c r="K23">
-        <v>0</v>
+        <v>0.5020329151927285</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>0.3300651637981389</v>
       </c>
       <c r="M23">
         <v>0</v>
       </c>
       <c r="N23">
-        <v>0.879241061670939</v>
+        <v>0</v>
       </c>
       <c r="O23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:15">
+      <c r="P23">
+        <v>0.5801501450706965</v>
+      </c>
+      <c r="Q23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>7.335892002238836</v>
+        <v>4.143691453699375</v>
       </c>
       <c r="C24">
-        <v>2.147323715136906</v>
+        <v>1.458038832879026</v>
       </c>
       <c r="D24">
-        <v>0.01742615060874186</v>
+        <v>0.1828865809242757</v>
       </c>
       <c r="E24">
-        <v>0.142557395006758</v>
+        <v>0.2119204592347543</v>
       </c>
       <c r="F24">
-        <v>4.598575811307683</v>
+        <v>1.647632392310825</v>
       </c>
       <c r="G24">
-        <v>0.0007541306282390487</v>
+        <v>1.234697725190955</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>0.01515175387634571</v>
       </c>
       <c r="J24">
-        <v>0.3496989730955704</v>
+        <v>0.7075463662609422</v>
       </c>
       <c r="K24">
-        <v>0</v>
+        <v>0.4657722523947001</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>0.2841433411880558</v>
       </c>
       <c r="M24">
         <v>0</v>
       </c>
       <c r="N24">
-        <v>0.9192959131900409</v>
+        <v>0</v>
       </c>
       <c r="O24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:15">
+      <c r="P24">
+        <v>0.6186298952462366</v>
+      </c>
+      <c r="Q24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>5.892003937811751</v>
+        <v>3.387999071028389</v>
       </c>
       <c r="C25">
-        <v>1.716885984632768</v>
+        <v>1.185893868916253</v>
       </c>
       <c r="D25">
-        <v>0.0146257897758062</v>
+        <v>0.1533731817145707</v>
       </c>
       <c r="E25">
-        <v>0.1176627808764223</v>
+        <v>0.1769277026405263</v>
       </c>
       <c r="F25">
-        <v>3.841769067480953</v>
+        <v>1.419061519118117</v>
       </c>
       <c r="G25">
-        <v>0.0007758129760184443</v>
+        <v>1.051252969036113</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>0.00768222593907808</v>
       </c>
       <c r="J25">
-        <v>0.2867890707976528</v>
+        <v>0.6336719034160865</v>
       </c>
       <c r="K25">
-        <v>0</v>
+        <v>0.4306055125643837</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>0.2365355343375626</v>
       </c>
       <c r="M25">
         <v>0</v>
       </c>
       <c r="N25">
-        <v>0.977001744890714</v>
+        <v>0</v>
       </c>
       <c r="O25">
+        <v>0</v>
+      </c>
+      <c r="P25">
+        <v>0.664226785053323</v>
+      </c>
+      <c r="Q25">
         <v>0</v>
       </c>
     </row>

--- a/Code/Results/Cases/Case_6_47/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_6_47/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,1276 +421,1426 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>2.849566727709032</v>
+        <v>2.704837361453258</v>
       </c>
       <c r="C2">
-        <v>0.9823292823700172</v>
+        <v>1.050348417673888</v>
       </c>
       <c r="D2">
-        <v>0.1311576868928483</v>
+        <v>0.1421880567751401</v>
       </c>
       <c r="E2">
-        <v>0.1516935162507593</v>
+        <v>0.1550210677471924</v>
       </c>
       <c r="F2">
-        <v>1.268519604685252</v>
+        <v>1.179342898506007</v>
       </c>
       <c r="G2">
-        <v>0.9322881981361206</v>
+        <v>0.8202956644542354</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>0.00334714836598371</v>
+        <v>0.003315533268651194</v>
       </c>
       <c r="J2">
-        <v>0.5876796403362476</v>
+        <v>0.5897236114489743</v>
       </c>
       <c r="K2">
-        <v>0.4129079284310819</v>
+        <v>0.3585259556159706</v>
       </c>
       <c r="L2">
-        <v>0.2030316111607391</v>
+        <v>0.1922699678597262</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>0.09133247433423719</v>
       </c>
       <c r="N2">
-        <v>0</v>
+        <v>0.2006239892252566</v>
       </c>
       <c r="O2">
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0.6985762884866844</v>
+        <v>0</v>
       </c>
       <c r="Q2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:17">
+      <c r="R2">
+        <v>0.7217565200711888</v>
+      </c>
+      <c r="S2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.477048397991041</v>
+        <v>2.360159124370796</v>
       </c>
       <c r="C3">
-        <v>0.8506322728272835</v>
+        <v>0.9061897330270767</v>
       </c>
       <c r="D3">
-        <v>0.1170531764141458</v>
+        <v>0.1263266832823291</v>
       </c>
       <c r="E3">
-        <v>0.1352279115194044</v>
+        <v>0.1380618617172082</v>
       </c>
       <c r="F3">
-        <v>1.165576689919178</v>
+        <v>1.089879288350843</v>
       </c>
       <c r="G3">
-        <v>0.8498046374439951</v>
+        <v>0.7521856013399741</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>0.001581032242134572</v>
+        <v>0.001779974326685529</v>
       </c>
       <c r="J3">
-        <v>0.5558042347527561</v>
+        <v>0.5601937112437838</v>
       </c>
       <c r="K3">
-        <v>0.3992747321024765</v>
+        <v>0.3511854117428754</v>
       </c>
       <c r="L3">
-        <v>0.1808443596350671</v>
+        <v>0.1951796352914563</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>0.08324360535473829</v>
       </c>
       <c r="N3">
-        <v>0</v>
+        <v>0.1789047796075494</v>
       </c>
       <c r="O3">
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.725143280845014</v>
+        <v>0</v>
       </c>
       <c r="Q3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:17">
+      <c r="R3">
+        <v>0.7384400759338376</v>
+      </c>
+      <c r="S3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2.248328934077108</v>
+        <v>2.147869749551546</v>
       </c>
       <c r="C4">
-        <v>0.770679244283258</v>
+        <v>0.8187122525797292</v>
       </c>
       <c r="D4">
-        <v>0.1085510218632919</v>
+        <v>0.1167817109045615</v>
       </c>
       <c r="E4">
-        <v>0.1253130076839248</v>
+        <v>0.1278464781848676</v>
       </c>
       <c r="F4">
-        <v>1.104110424046553</v>
+        <v>1.036213380990702</v>
       </c>
       <c r="G4">
-        <v>0.8004869708520062</v>
+        <v>0.7115422110631329</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>0.0008925725355912739</v>
+        <v>0.001137010514923542</v>
       </c>
       <c r="J4">
-        <v>0.5370205154761578</v>
+        <v>0.5422907817486617</v>
       </c>
       <c r="K4">
-        <v>0.3914600504199761</v>
+        <v>0.3470078275833792</v>
       </c>
       <c r="L4">
-        <v>0.1674964651472166</v>
+        <v>0.1969318189719047</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>0.07909174870567526</v>
       </c>
       <c r="N4">
-        <v>0</v>
+        <v>0.1658180534880742</v>
       </c>
       <c r="O4">
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.7423461885277582</v>
+        <v>0</v>
       </c>
       <c r="Q4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:17">
+      <c r="R4">
+        <v>0.7496290474329825</v>
+      </c>
+      <c r="S4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>2.15358302133393</v>
+        <v>2.059736162944091</v>
       </c>
       <c r="C5">
-        <v>0.7390555300712549</v>
+        <v>0.7840656371931232</v>
       </c>
       <c r="D5">
-        <v>0.1052360833226942</v>
+        <v>0.1130520589518369</v>
       </c>
       <c r="E5">
-        <v>0.1213524011362779</v>
+        <v>0.1237638389381424</v>
       </c>
       <c r="F5">
-        <v>1.07851564885317</v>
+        <v>1.013740433823898</v>
       </c>
       <c r="G5">
-        <v>0.7797409117766136</v>
+        <v>0.6943687075888931</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>0.0007656690411055322</v>
+        <v>0.00101897219007796</v>
       </c>
       <c r="J5">
-        <v>0.5290694869257777</v>
+        <v>0.5345840395429349</v>
       </c>
       <c r="K5">
-        <v>0.3878448440392823</v>
+        <v>0.3448812046926832</v>
       </c>
       <c r="L5">
-        <v>0.1620955134847364</v>
+        <v>0.1974010134263402</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>0.07745621764180122</v>
       </c>
       <c r="N5">
-        <v>0</v>
+        <v>0.1605184254848737</v>
       </c>
       <c r="O5">
         <v>0</v>
       </c>
       <c r="P5">
-        <v>0.7497902656098319</v>
+        <v>0</v>
       </c>
       <c r="Q5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:17">
+      <c r="R5">
+        <v>0.7547007554250484</v>
+      </c>
+      <c r="S5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>2.135997524591517</v>
+        <v>2.043327946140778</v>
       </c>
       <c r="C6">
-        <v>0.7347430057286886</v>
+        <v>0.7792656198513441</v>
       </c>
       <c r="D6">
-        <v>0.104825868372771</v>
+        <v>0.1125752323085436</v>
       </c>
       <c r="E6">
-        <v>0.120739972254448</v>
+        <v>0.1231306273798189</v>
       </c>
       <c r="F6">
-        <v>1.073128756975251</v>
+        <v>1.008932555712647</v>
       </c>
       <c r="G6">
-        <v>0.7751494136479948</v>
+        <v>0.6904581859638341</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>0.0008322642982978579</v>
+        <v>0.001102604602548851</v>
       </c>
       <c r="J6">
-        <v>0.5271721806146843</v>
+        <v>0.5327418660208139</v>
       </c>
       <c r="K6">
-        <v>0.3865671900540981</v>
+        <v>0.3439214109291058</v>
       </c>
       <c r="L6">
-        <v>0.1611723804248726</v>
+        <v>0.1971911175876357</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>0.07702113884085371</v>
       </c>
       <c r="N6">
-        <v>0</v>
+        <v>0.1596127205168898</v>
       </c>
       <c r="O6">
         <v>0</v>
       </c>
       <c r="P6">
-        <v>0.7513075027314251</v>
+        <v>0</v>
       </c>
       <c r="Q6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:17">
+      <c r="R6">
+        <v>0.7559038071346933</v>
+      </c>
+      <c r="S6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2.241975606207632</v>
+        <v>2.139745459106678</v>
       </c>
       <c r="C7">
-        <v>0.7727898527983541</v>
+        <v>0.8191685632787369</v>
       </c>
       <c r="D7">
-        <v>0.1088835910456396</v>
+        <v>0.1173786707841487</v>
       </c>
       <c r="E7">
-        <v>0.1253758450538562</v>
+        <v>0.1279854243214373</v>
       </c>
       <c r="F7">
-        <v>1.100588945889385</v>
+        <v>1.0308666584409</v>
       </c>
       <c r="G7">
-        <v>0.7970196904892646</v>
+        <v>0.712341367052403</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>0.001097937434108687</v>
+        <v>0.001383223548907075</v>
       </c>
       <c r="J7">
-        <v>0.5353050443289504</v>
+        <v>0.5332854384221264</v>
       </c>
       <c r="K7">
-        <v>0.3895376345200461</v>
+        <v>0.3446039178412299</v>
       </c>
       <c r="L7">
-        <v>0.1673412438900144</v>
+        <v>0.1958426232316306</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>0.07836466959725996</v>
       </c>
       <c r="N7">
-        <v>0</v>
+        <v>0.1656114229047461</v>
       </c>
       <c r="O7">
         <v>0</v>
       </c>
       <c r="P7">
-        <v>0.7431945305205652</v>
+        <v>0</v>
       </c>
       <c r="Q7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:17">
+      <c r="R7">
+        <v>0.7511153359164595</v>
+      </c>
+      <c r="S7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2.714292027648469</v>
+        <v>2.57258473841415</v>
       </c>
       <c r="C8">
-        <v>0.9400994361407697</v>
+        <v>0.9982935126979839</v>
       </c>
       <c r="D8">
-        <v>0.1267615811609915</v>
+        <v>0.1380757515187696</v>
       </c>
       <c r="E8">
-        <v>0.1461273290269389</v>
+        <v>0.1495465443156085</v>
       </c>
       <c r="F8">
-        <v>1.228414399388129</v>
+        <v>1.13740725140093</v>
       </c>
       <c r="G8">
-        <v>0.8993093399895002</v>
+        <v>0.8059549298257878</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>0.002887993508197795</v>
+        <v>0.002994542485293294</v>
       </c>
       <c r="J8">
-        <v>0.5743809256495069</v>
+        <v>0.5531847376498433</v>
       </c>
       <c r="K8">
-        <v>0.4055997508901328</v>
+        <v>0.3513984963262864</v>
       </c>
       <c r="L8">
-        <v>0.1952098595875782</v>
+        <v>0.1913358513617212</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>0.08688266675889267</v>
       </c>
       <c r="N8">
-        <v>0</v>
+        <v>0.1927859139540402</v>
       </c>
       <c r="O8">
         <v>0</v>
       </c>
       <c r="P8">
-        <v>0.7086128420122932</v>
+        <v>0</v>
       </c>
       <c r="Q8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:17">
+      <c r="R8">
+        <v>0.7303021956205669</v>
+      </c>
+      <c r="S8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>3.651379022650474</v>
+        <v>3.433555203009973</v>
       </c>
       <c r="C9">
-        <v>1.272170075324766</v>
+        <v>1.360366093504808</v>
       </c>
       <c r="D9">
-        <v>0.1625255884253818</v>
+        <v>0.1786842837278897</v>
       </c>
       <c r="E9">
-        <v>0.18835761639086</v>
+        <v>0.1930861090745566</v>
       </c>
       <c r="F9">
-        <v>1.500386588613992</v>
+        <v>1.370536273852693</v>
       </c>
       <c r="G9">
-        <v>1.117681895478441</v>
+        <v>0.9910301223004723</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>0.009597202475834621</v>
+        <v>0.008427361432430835</v>
       </c>
       <c r="J9">
-        <v>0.6608377510582102</v>
+        <v>0.6233351976841561</v>
       </c>
       <c r="K9">
-        <v>0.445362317920484</v>
+        <v>0.3731824332626914</v>
       </c>
       <c r="L9">
-        <v>0.2525017629959905</v>
+        <v>0.1846894806343364</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>0.1120590753591806</v>
       </c>
       <c r="N9">
-        <v>0</v>
+        <v>0.2486667836870424</v>
       </c>
       <c r="O9">
         <v>0</v>
       </c>
       <c r="P9">
-        <v>0.6467461160325101</v>
+        <v>0</v>
       </c>
       <c r="Q9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:17">
+      <c r="R9">
+        <v>0.6937651051280653</v>
+      </c>
+      <c r="S9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>4.340646402120342</v>
+        <v>4.04975685664914</v>
       </c>
       <c r="C10">
-        <v>1.524705295583999</v>
+        <v>1.625238655425107</v>
       </c>
       <c r="D10">
-        <v>0.1900322834441113</v>
+        <v>0.2115585069480375</v>
       </c>
       <c r="E10">
-        <v>0.2208044478093072</v>
+        <v>0.2269481008840017</v>
       </c>
       <c r="F10">
-        <v>1.710761847299324</v>
+        <v>1.53709251443324</v>
       </c>
       <c r="G10">
-        <v>1.286103425980173</v>
+        <v>1.158213542192954</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>0.01726339619682538</v>
+        <v>0.01443394997342828</v>
       </c>
       <c r="J10">
-        <v>0.7288142823014709</v>
+        <v>0.6339954765765441</v>
       </c>
       <c r="K10">
-        <v>0.4773600816607129</v>
+        <v>0.3866100923433464</v>
       </c>
       <c r="L10">
-        <v>0.2965353833036062</v>
+        <v>0.1779743660692397</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>0.1330746566685761</v>
       </c>
       <c r="N10">
-        <v>0</v>
+        <v>0.2911094669572236</v>
       </c>
       <c r="O10">
         <v>0</v>
       </c>
       <c r="P10">
-        <v>0.6068075729958409</v>
+        <v>0</v>
       </c>
       <c r="Q10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:17">
+      <c r="R10">
+        <v>0.6761299188461933</v>
+      </c>
+      <c r="S10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>4.646768807846001</v>
+        <v>4.299158173275941</v>
       </c>
       <c r="C11">
-        <v>1.645959040102298</v>
+        <v>1.734092765122398</v>
       </c>
       <c r="D11">
-        <v>0.2034499019487299</v>
+        <v>0.230389490771671</v>
       </c>
       <c r="E11">
-        <v>0.2361240395691908</v>
+        <v>0.2437386689696908</v>
       </c>
       <c r="F11">
-        <v>1.804421191400408</v>
+        <v>1.588785303589091</v>
       </c>
       <c r="G11">
-        <v>1.35999963123092</v>
+        <v>1.275480467707268</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>0.02172320840545172</v>
+        <v>0.01790232068749908</v>
       </c>
       <c r="J11">
-        <v>0.758455394465102</v>
+        <v>0.5679257539713802</v>
       </c>
       <c r="K11">
-        <v>0.4898039783473038</v>
+        <v>0.383633659788849</v>
       </c>
       <c r="L11">
-        <v>0.3169660353883756</v>
+        <v>0.1716273668491795</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>0.1396017996385659</v>
       </c>
       <c r="N11">
-        <v>0</v>
+        <v>0.3101369524266744</v>
       </c>
       <c r="O11">
         <v>0</v>
       </c>
       <c r="P11">
-        <v>0.5914609744599986</v>
+        <v>0</v>
       </c>
       <c r="Q11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:17">
+      <c r="R11">
+        <v>0.6777502231690278</v>
+      </c>
+      <c r="S11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>4.767572909546971</v>
+        <v>4.394998258745318</v>
       </c>
       <c r="C12">
-        <v>1.689948941113585</v>
+        <v>1.771005435106019</v>
       </c>
       <c r="D12">
-        <v>0.2082402716379619</v>
+        <v>0.2376210671002781</v>
       </c>
       <c r="E12">
-        <v>0.2418836774557818</v>
+        <v>0.2501654404604494</v>
       </c>
       <c r="F12">
-        <v>1.843246826157369</v>
+        <v>1.60855385592717</v>
       </c>
       <c r="G12">
-        <v>1.39124966036934</v>
+        <v>1.329060096113068</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>0.02337793763511264</v>
+        <v>0.01907892641430564</v>
       </c>
       <c r="J12">
-        <v>0.7713240955293656</v>
+        <v>0.5374001153271024</v>
       </c>
       <c r="K12">
-        <v>0.4963189619394228</v>
+        <v>0.3831025016752605</v>
       </c>
       <c r="L12">
-        <v>0.3248680545683698</v>
+        <v>0.1694550960363017</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>0.1423791468143278</v>
       </c>
       <c r="N12">
-        <v>0</v>
+        <v>0.3174105828019265</v>
       </c>
       <c r="O12">
         <v>0</v>
       </c>
       <c r="P12">
-        <v>0.5850125238728694</v>
+        <v>0</v>
       </c>
       <c r="Q12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:17">
+      <c r="R12">
+        <v>0.6783553672666258</v>
+      </c>
+      <c r="S12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>4.742481165418098</v>
+        <v>4.375363915521746</v>
       </c>
       <c r="C13">
-        <v>1.680000321034299</v>
+        <v>1.762684723261373</v>
       </c>
       <c r="D13">
-        <v>0.2071391307102459</v>
+        <v>0.2359729929807344</v>
       </c>
       <c r="E13">
-        <v>0.2406201271347328</v>
+        <v>0.2487533563245208</v>
       </c>
       <c r="F13">
-        <v>1.83543051106605</v>
+        <v>1.604920880038293</v>
       </c>
       <c r="G13">
-        <v>1.385071822867815</v>
+        <v>1.317754865218802</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>0.02298479860685632</v>
+        <v>0.01878033210851804</v>
       </c>
       <c r="J13">
-        <v>0.7688285316000645</v>
+        <v>0.5444579652812536</v>
       </c>
       <c r="K13">
-        <v>0.4952395920395389</v>
+        <v>0.3835263380340521</v>
       </c>
       <c r="L13">
-        <v>0.3231776659992818</v>
+        <v>0.1700284270309638</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>0.1419068130509906</v>
       </c>
       <c r="N13">
-        <v>0</v>
+        <v>0.3158590947286086</v>
       </c>
       <c r="O13">
         <v>0</v>
       </c>
       <c r="P13">
-        <v>0.586222847282059</v>
+        <v>0</v>
       </c>
       <c r="Q13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:17">
+      <c r="R13">
+        <v>0.6779371831850654</v>
+      </c>
+      <c r="S13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>4.657099830240668</v>
+        <v>4.307473744294157</v>
       </c>
       <c r="C14">
-        <v>1.649376235526006</v>
+        <v>1.736973892779815</v>
       </c>
       <c r="D14">
-        <v>0.2038144672109183</v>
+        <v>0.2309455694567077</v>
       </c>
       <c r="E14">
-        <v>0.2365880067463237</v>
+        <v>0.2442553518639201</v>
       </c>
       <c r="F14">
-        <v>1.807846363956742</v>
+        <v>1.590680120261482</v>
       </c>
       <c r="G14">
-        <v>1.362804598150575</v>
+        <v>1.279979984500642</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>0.02184322990048315</v>
+        <v>0.01797945852460536</v>
       </c>
       <c r="J14">
-        <v>0.7596310131675068</v>
+        <v>0.5656330190241903</v>
       </c>
       <c r="K14">
-        <v>0.4904772334736762</v>
+        <v>0.3837228601841716</v>
       </c>
       <c r="L14">
-        <v>0.3176208976757948</v>
+        <v>0.1714942866345197</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>0.1398839122932714</v>
       </c>
       <c r="N14">
-        <v>0</v>
+        <v>0.3107417357181674</v>
       </c>
       <c r="O14">
         <v>0</v>
       </c>
       <c r="P14">
-        <v>0.5908547048644266</v>
+        <v>0</v>
       </c>
       <c r="Q14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:17">
+      <c r="R14">
+        <v>0.6776778471669473</v>
+      </c>
+      <c r="S14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>4.602994620898414</v>
+        <v>4.263782177648523</v>
       </c>
       <c r="C15">
-        <v>1.631566657257395</v>
+        <v>1.721873192449095</v>
       </c>
       <c r="D15">
-        <v>0.2019165845175337</v>
+        <v>0.2280627239620969</v>
       </c>
       <c r="E15">
-        <v>0.2341662865139611</v>
+        <v>0.2415624021662026</v>
       </c>
       <c r="F15">
-        <v>1.789900902308744</v>
+        <v>1.580620928448383</v>
       </c>
       <c r="G15">
-        <v>1.348098021189202</v>
+        <v>1.256672441717399</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>0.02122608659687586</v>
+        <v>0.01758584460055701</v>
       </c>
       <c r="J15">
-        <v>0.7534643207593206</v>
+        <v>0.5773316574019702</v>
       </c>
       <c r="K15">
-        <v>0.4869305570910925</v>
+        <v>0.383195345788522</v>
       </c>
       <c r="L15">
-        <v>0.3141985804326879</v>
+        <v>0.1721688293079175</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>0.1383871220587025</v>
       </c>
       <c r="N15">
-        <v>0</v>
+        <v>0.30757751018146</v>
       </c>
       <c r="O15">
         <v>0</v>
       </c>
       <c r="P15">
-        <v>0.5940491813051878</v>
+        <v>0</v>
       </c>
       <c r="Q15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:17">
+      <c r="R15">
+        <v>0.6781222021200008</v>
+      </c>
+      <c r="S15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>4.305217214858942</v>
+        <v>4.01858731578227</v>
       </c>
       <c r="C16">
-        <v>1.524409565678354</v>
+        <v>1.625557441906835</v>
       </c>
       <c r="D16">
-        <v>0.1902774918015808</v>
+        <v>0.2115329538583808</v>
       </c>
       <c r="E16">
-        <v>0.2201492756062109</v>
+        <v>0.226207602814867</v>
       </c>
       <c r="F16">
-        <v>1.695284484827553</v>
+        <v>1.524740395372746</v>
       </c>
       <c r="G16">
-        <v>1.271866350171507</v>
+        <v>1.142662501265619</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>0.01750664343148856</v>
+        <v>0.01490468760911767</v>
       </c>
       <c r="J16">
-        <v>0.7221686285746785</v>
+        <v>0.6331704486902794</v>
       </c>
       <c r="K16">
-        <v>0.4710828115464878</v>
+        <v>0.3820503734989558</v>
       </c>
       <c r="L16">
-        <v>0.2949566301099367</v>
+        <v>0.1766940984152576</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>0.1307451246336591</v>
       </c>
       <c r="N16">
-        <v>0</v>
+        <v>0.2896212222931638</v>
       </c>
       <c r="O16">
         <v>0</v>
       </c>
       <c r="P16">
-        <v>0.6105849247288972</v>
+        <v>0</v>
       </c>
       <c r="Q16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:17">
+      <c r="R16">
+        <v>0.679856158401634</v>
+      </c>
+      <c r="S16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>4.123004771151102</v>
+        <v>3.863261102652473</v>
       </c>
       <c r="C17">
-        <v>1.459201604194902</v>
+        <v>1.563029816540165</v>
       </c>
       <c r="D17">
-        <v>0.1832053746843911</v>
+        <v>0.2021192806286933</v>
       </c>
       <c r="E17">
-        <v>0.2116479075537185</v>
+        <v>0.2170675360015437</v>
       </c>
       <c r="F17">
-        <v>1.638171019977889</v>
+        <v>1.486414475279133</v>
       </c>
       <c r="G17">
-        <v>1.225857657380459</v>
+        <v>1.083312914757641</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>0.01542106610589844</v>
+        <v>0.01336958754745954</v>
       </c>
       <c r="J17">
-        <v>0.7033661723104672</v>
+        <v>0.6537258554995589</v>
       </c>
       <c r="K17">
-        <v>0.4616512098853889</v>
+        <v>0.3799923477079545</v>
       </c>
       <c r="L17">
-        <v>0.283300535634794</v>
+        <v>0.1789848961700571</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>0.1256615242408543</v>
       </c>
       <c r="N17">
-        <v>0</v>
+        <v>0.2785979690950029</v>
       </c>
       <c r="O17">
         <v>0</v>
       </c>
       <c r="P17">
-        <v>0.6210317763557001</v>
+        <v>0</v>
       </c>
       <c r="Q17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:17">
+      <c r="R17">
+        <v>0.6826594467451912</v>
+      </c>
+      <c r="S17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>4.023005145363641</v>
+        <v>3.77657339137869</v>
       </c>
       <c r="C18">
-        <v>1.419581958746107</v>
+        <v>1.523516816755091</v>
       </c>
       <c r="D18">
-        <v>0.1788233247772411</v>
+        <v>0.196609948280809</v>
       </c>
       <c r="E18">
-        <v>0.2066894274704296</v>
+        <v>0.2118063044561538</v>
       </c>
       <c r="F18">
-        <v>1.608486662220187</v>
+        <v>1.465575739230076</v>
       </c>
       <c r="G18">
-        <v>1.202509195624515</v>
+        <v>1.055363828959571</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>0.01409069184156753</v>
+        <v>0.01226895907640113</v>
       </c>
       <c r="J18">
-        <v>0.6941191711474062</v>
+        <v>0.6615231900933622</v>
       </c>
       <c r="K18">
-        <v>0.4579804452107012</v>
+        <v>0.3797443243130374</v>
       </c>
       <c r="L18">
-        <v>0.2767240822117429</v>
+        <v>0.1806403195622224</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>0.1231638154996695</v>
       </c>
       <c r="N18">
-        <v>0</v>
+        <v>0.27232846210579</v>
       </c>
       <c r="O18">
         <v>0</v>
       </c>
       <c r="P18">
-        <v>0.6263228672454275</v>
+        <v>0</v>
       </c>
       <c r="Q18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:17">
+      <c r="R18">
+        <v>0.6837741741040588</v>
+      </c>
+      <c r="S18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>3.985582376798448</v>
+        <v>3.743563264526585</v>
       </c>
       <c r="C19">
-        <v>1.407966861784701</v>
+        <v>1.511741025344406</v>
       </c>
       <c r="D19">
-        <v>0.1776043434837362</v>
+        <v>0.1950524138708829</v>
       </c>
       <c r="E19">
-        <v>0.2050952628878946</v>
+        <v>0.210119187555847</v>
       </c>
       <c r="F19">
-        <v>1.596296062330396</v>
+        <v>1.456256391029925</v>
       </c>
       <c r="G19">
-        <v>1.192445932509173</v>
+        <v>1.044478677388582</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>0.01380164613815182</v>
+        <v>0.01209695684684498</v>
       </c>
       <c r="J19">
-        <v>0.6899083100352073</v>
+        <v>0.6622276516760479</v>
       </c>
       <c r="K19">
-        <v>0.4554790078535049</v>
+        <v>0.3784868314167511</v>
       </c>
       <c r="L19">
-        <v>0.2744467516939579</v>
+        <v>0.1807691349756659</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>0.1218684721375034</v>
       </c>
       <c r="N19">
-        <v>0</v>
+        <v>0.2701486479281527</v>
       </c>
       <c r="O19">
         <v>0</v>
       </c>
       <c r="P19">
-        <v>0.6287692425713871</v>
+        <v>0</v>
       </c>
       <c r="Q19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:17">
+      <c r="R19">
+        <v>0.6850855886033713</v>
+      </c>
+      <c r="S19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>4.14275114482615</v>
+        <v>3.880319052041841</v>
       </c>
       <c r="C20">
-        <v>1.465943809077999</v>
+        <v>1.569628838636106</v>
       </c>
       <c r="D20">
-        <v>0.1839291702955421</v>
+        <v>0.2030679305665331</v>
       </c>
       <c r="E20">
-        <v>0.2125413020019025</v>
+        <v>0.2180223857390118</v>
       </c>
       <c r="F20">
-        <v>1.644440373707383</v>
+        <v>1.49084892651878</v>
       </c>
       <c r="G20">
-        <v>1.230952023161251</v>
+        <v>1.089458733050833</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>0.0156201415030699</v>
+        <v>0.01350849843343394</v>
       </c>
       <c r="J20">
-        <v>0.7054655365676581</v>
+        <v>0.6521868174023666</v>
       </c>
       <c r="K20">
-        <v>0.462774370549937</v>
+        <v>0.3803724120176639</v>
       </c>
       <c r="L20">
-        <v>0.2845420115630901</v>
+        <v>0.1788000013794608</v>
       </c>
       <c r="M20">
-        <v>0</v>
+        <v>0.1262603060100531</v>
       </c>
       <c r="N20">
-        <v>0</v>
+        <v>0.2797774690985904</v>
       </c>
       <c r="O20">
         <v>0</v>
       </c>
       <c r="P20">
-        <v>0.6198431031332063</v>
+        <v>0</v>
       </c>
       <c r="Q20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:17">
+      <c r="R20">
+        <v>0.6822127708031331</v>
+      </c>
+      <c r="S20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>4.676917875892627</v>
+        <v>4.314575057945774</v>
       </c>
       <c r="C21">
-        <v>1.660933927313522</v>
+        <v>1.740828259102386</v>
       </c>
       <c r="D21">
-        <v>0.205168179953688</v>
+        <v>0.2338332976110564</v>
       </c>
       <c r="E21">
-        <v>0.2378848439292938</v>
+        <v>0.2459820255931291</v>
       </c>
       <c r="F21">
-        <v>1.812737845783246</v>
+        <v>1.5844358886593</v>
       </c>
       <c r="G21">
-        <v>1.366125426628031</v>
+        <v>1.303515843113473</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>0.02236544638541815</v>
+        <v>0.01841782489346411</v>
       </c>
       <c r="J21">
-        <v>0.7607216885308787</v>
+        <v>0.5352276637638909</v>
       </c>
       <c r="K21">
-        <v>0.4900169692829692</v>
+        <v>0.3796594971933374</v>
       </c>
       <c r="L21">
-        <v>0.3191633309307491</v>
+        <v>0.1696789663111957</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>0.1388134152477534</v>
       </c>
       <c r="N21">
-        <v>0</v>
+        <v>0.3119428177541721</v>
       </c>
       <c r="O21">
         <v>0</v>
       </c>
       <c r="P21">
-        <v>0.5904430285968658</v>
+        <v>0</v>
       </c>
       <c r="Q21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:17">
+      <c r="R21">
+        <v>0.6812372055672142</v>
+      </c>
+      <c r="S21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>5.034448897494485</v>
+        <v>4.600886550377481</v>
       </c>
       <c r="C22">
-        <v>1.787017725673365</v>
+        <v>1.848112460083883</v>
       </c>
       <c r="D22">
-        <v>0.2188079630610531</v>
+        <v>0.2543323863802982</v>
       </c>
       <c r="E22">
-        <v>0.2546495540943212</v>
+        <v>0.264607172889967</v>
       </c>
       <c r="F22">
-        <v>1.930084427680342</v>
+        <v>1.647941064891356</v>
       </c>
       <c r="G22">
-        <v>1.46123352364441</v>
+        <v>1.460340084100835</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>0.02721630792945451</v>
+        <v>0.02175574182492213</v>
       </c>
       <c r="J22">
-        <v>0.8002683022411929</v>
+        <v>0.4608624828041883</v>
       </c>
       <c r="K22">
-        <v>0.5111981085105199</v>
+        <v>0.380675366350097</v>
       </c>
       <c r="L22">
-        <v>0.3424289780703447</v>
+        <v>0.1642908081054202</v>
       </c>
       <c r="M22">
-        <v>0</v>
+        <v>0.1480726591203414</v>
       </c>
       <c r="N22">
-        <v>0</v>
+        <v>0.3334101349458791</v>
       </c>
       <c r="O22">
         <v>0</v>
       </c>
       <c r="P22">
-        <v>0.571050903161364</v>
+        <v>0</v>
       </c>
       <c r="Q22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:17">
+      <c r="R22">
+        <v>0.6816841512206864</v>
+      </c>
+      <c r="S22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>4.849792196425938</v>
+        <v>4.459885201764678</v>
       </c>
       <c r="C23">
-        <v>1.716432931216616</v>
+        <v>1.792240136422777</v>
       </c>
       <c r="D23">
-        <v>0.2110488122217618</v>
+        <v>0.2421109230521807</v>
       </c>
       <c r="E23">
-        <v>0.2455304126866693</v>
+        <v>0.2542752210364014</v>
       </c>
       <c r="F23">
-        <v>1.870988268367867</v>
+        <v>1.622901930231762</v>
       </c>
       <c r="G23">
-        <v>1.41407985286844</v>
+        <v>1.368026803940182</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>0.02435027778335197</v>
+        <v>0.01968022312986939</v>
       </c>
       <c r="J23">
-        <v>0.7809617581987709</v>
+        <v>0.5170233230137029</v>
       </c>
       <c r="K23">
-        <v>0.5020329151927285</v>
+        <v>0.3837347233404671</v>
       </c>
       <c r="L23">
-        <v>0.3300651637981389</v>
+        <v>0.1683898599028204</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <v>0.1445999693842914</v>
       </c>
       <c r="N23">
-        <v>0</v>
+        <v>0.3221714140735514</v>
       </c>
       <c r="O23">
         <v>0</v>
       </c>
       <c r="P23">
-        <v>0.5801501450706965</v>
+        <v>0</v>
       </c>
       <c r="Q23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:17">
+      <c r="R23">
+        <v>0.6780178897723488</v>
+      </c>
+      <c r="S23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>4.143691453699375</v>
+        <v>3.881874919639245</v>
       </c>
       <c r="C24">
-        <v>1.458038832879026</v>
+        <v>1.561702029541777</v>
       </c>
       <c r="D24">
-        <v>0.1828865809242757</v>
+        <v>0.2019065738732451</v>
       </c>
       <c r="E24">
-        <v>0.2119204592347543</v>
+        <v>0.2173762036139451</v>
       </c>
       <c r="F24">
-        <v>1.647632392310825</v>
+        <v>1.494404753797554</v>
       </c>
       <c r="G24">
-        <v>1.234697725190955</v>
+        <v>1.092211676188185</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>0.01515175387634571</v>
+        <v>0.01295224653193205</v>
       </c>
       <c r="J24">
-        <v>0.7075463662609422</v>
+        <v>0.6556267421457278</v>
       </c>
       <c r="K24">
-        <v>0.4657722523947001</v>
+        <v>0.3831957551005303</v>
       </c>
       <c r="L24">
-        <v>0.2841433411880558</v>
+        <v>0.1799710182027923</v>
       </c>
       <c r="M24">
-        <v>0</v>
+        <v>0.1271754071880764</v>
       </c>
       <c r="N24">
-        <v>0</v>
+        <v>0.2794000020877263</v>
       </c>
       <c r="O24">
         <v>0</v>
       </c>
       <c r="P24">
-        <v>0.6186298952462366</v>
+        <v>0</v>
       </c>
       <c r="Q24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:17">
+      <c r="R24">
+        <v>0.6800962266951487</v>
+      </c>
+      <c r="S24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>3.387999071028389</v>
+        <v>3.195100296975454</v>
       </c>
       <c r="C25">
-        <v>1.185893868916253</v>
+        <v>1.26839782266876</v>
       </c>
       <c r="D25">
-        <v>0.1533731817145707</v>
+        <v>0.1678165112398631</v>
       </c>
       <c r="E25">
-        <v>0.1769277026405263</v>
+        <v>0.1811866884721027</v>
       </c>
       <c r="F25">
-        <v>1.419061519118117</v>
+        <v>1.303603921174258</v>
       </c>
       <c r="G25">
-        <v>1.051252969036113</v>
+        <v>0.9284872183143165</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>0.00768222593907808</v>
+        <v>0.007069877768356214</v>
       </c>
       <c r="J25">
-        <v>0.6336719034160865</v>
+        <v>0.6117564002187379</v>
       </c>
       <c r="K25">
-        <v>0.4306055125643837</v>
+        <v>0.3649782901528269</v>
       </c>
       <c r="L25">
-        <v>0.2365355343375626</v>
+        <v>0.1857493021526047</v>
       </c>
       <c r="M25">
-        <v>0</v>
+        <v>0.1037750716200385</v>
       </c>
       <c r="N25">
-        <v>0</v>
+        <v>0.2332024934219561</v>
       </c>
       <c r="O25">
         <v>0</v>
       </c>
       <c r="P25">
-        <v>0.664226785053323</v>
+        <v>0</v>
       </c>
       <c r="Q25">
+        <v>0</v>
+      </c>
+      <c r="R25">
+        <v>0.704114212813387</v>
+      </c>
+      <c r="S25">
         <v>0</v>
       </c>
     </row>
